--- a/Machine Learning/BD_FINAL.xlsx
+++ b/Machine Learning/BD_FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpedupe-my.sharepoint.com/personal/a20185917_pucp_edu_pe/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpedupe-my.sharepoint.com/personal/a20185917_pucp_edu_pe/Documents/Documentos/GitHub/Diplomado_PUCP_2025-1/Machine Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{02725887-3540-4A1C-B7A3-D95B7747E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D4186C2-CEB5-4CA4-BD73-D71EA36A0354}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{02725887-3540-4A1C-B7A3-D95B7747E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0318488-6204-4EA1-81FF-3D2B53A75EBF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4580" yWindow="0" windowWidth="14620" windowHeight="11280" xr2:uid="{8FE0B58B-4261-47DC-AB38-012767CBD3FD}"/>
+    <workbookView xWindow="4580" yWindow="0" windowWidth="14620" windowHeight="11280" xr2:uid="{8FE0B58B-4261-47DC-AB38-012767CBD3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="bd_subfinal" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>2017_corrupcion</t>
   </si>
@@ -137,12 +134,6 @@
     <t>2024_Devengado4</t>
   </si>
   <si>
-    <t>2018_fragment</t>
-  </si>
-  <si>
-    <t>2022_fragment</t>
-  </si>
-  <si>
     <t>AMAZONAS_BAGUA</t>
   </si>
   <si>
@@ -726,6 +717,9 @@
   </si>
   <si>
     <t>UCAYALI_PURUS</t>
+  </si>
+  <si>
+    <t>municipalidad</t>
   </si>
 </sst>
 </file>
@@ -781,13 +775,7 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -873,14 +861,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88450831-C848-4897-BB1D-5DC845BDEBEB}" name="Tabla9" displayName="Tabla9" ref="A1:AI197" totalsRowShown="0">
-  <autoFilter ref="A1:AI197" xr:uid="{AD62F401-EE86-4997-9544-9EABC2D8DF27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88450831-C848-4897-BB1D-5DC845BDEBEB}" name="Tabla9" displayName="Tabla9" ref="A1:AG197" totalsRowShown="0">
+  <autoFilter ref="A1:AG197" xr:uid="{AD62F401-EE86-4997-9544-9EABC2D8DF27}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG197">
     <sortCondition ref="A1:A197"/>
   </sortState>
-  <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{083A57EF-2767-496F-AC28-C0AF76424817}" name="Etiquetas de fila"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{083A57EF-2767-496F-AC28-C0AF76424817}" name="municipalidad"/>
     <tableColumn id="2" xr3:uid="{2EE72C0A-CB33-4E8B-BFB9-A5486A1D0DCD}" name="2017_corrupcion"/>
     <tableColumn id="3" xr3:uid="{A859AC39-A6B4-470E-BC2F-E0159B171361}" name="2018_corrupcion"/>
     <tableColumn id="4" xr3:uid="{542E81C8-638B-4AC9-A8D8-B6D9E3E84E60}" name="2019_corrupcion"/>
@@ -889,32 +881,30 @@
     <tableColumn id="7" xr3:uid="{FBE6C918-4737-4F98-BDA4-0B2FDBF0FCCC}" name="2022_corrupcion"/>
     <tableColumn id="8" xr3:uid="{102DC655-61F9-4962-863D-DDE994211A5E}" name="2023_corrupcion"/>
     <tableColumn id="9" xr3:uid="{76A219E8-1118-4746-B8DE-408BB1B286AA}" name="2024_corrupcion"/>
-    <tableColumn id="10" xr3:uid="{84CE066F-0F6C-4FF8-BFA3-B0A63C263EC4}" name="2017_IDH" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{EF37A004-632A-4C5A-BED3-7B8FB3C52C51}" name="2018_IDH" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{190939F2-68B6-46B4-A87E-0651F103A6AD}" name="2019_IDH" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{5884C23C-E564-4C96-930B-AECA1C576A60}" name="2020_IDH" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{733CEEC0-82DD-499F-BFC4-97A799B5FFC2}" name="2021_IDH" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{68C86BAF-3BA4-4A13-9E3C-442F8431CC28}" name="2022_IDH" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{05B69C4A-4C41-4626-830D-D076723E4FBB}" name="2023_IDH" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{73FC5774-717D-4E3A-9B3C-E03D4B119214}" name="2024_IDH" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{75251FAD-4BD9-41C0-9816-88584EABB6F9}" name="2017_PIM" dataDxfId="17" dataCellStyle="Millares"/>
-    <tableColumn id="19" xr3:uid="{3DE2772A-01C7-4332-907D-F68D1D4B80D1}" name="2018_PIM" dataDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="20" xr3:uid="{71D0D554-D4D0-4336-A641-40B4A375C7C6}" name="2019_PIM" dataDxfId="15" dataCellStyle="Millares"/>
-    <tableColumn id="21" xr3:uid="{83BA28F5-356F-4A08-A938-B3342D7BBB85}" name="2020_PIM" dataDxfId="14" dataCellStyle="Millares"/>
-    <tableColumn id="22" xr3:uid="{94EC6D8F-F80C-4551-B0FB-DFB9C835A850}" name="2021_PIM" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="23" xr3:uid="{10037463-477C-4EF1-B2A6-94361065FD2E}" name="2022_PIM" dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="24" xr3:uid="{94BFF7A3-EE4E-41FB-9621-4FD06CC4B865}" name="2023_PIM" dataDxfId="11" dataCellStyle="Millares"/>
-    <tableColumn id="25" xr3:uid="{C1EE12AF-06DF-49A8-953F-40164120589B}" name="2024_PIM" dataDxfId="10" dataCellStyle="Millares"/>
-    <tableColumn id="26" xr3:uid="{98638984-81A2-4539-991C-A3DD05A3918A}" name="2017_Devengado" dataDxfId="9" dataCellStyle="Millares"/>
-    <tableColumn id="27" xr3:uid="{885D9F3F-014E-4530-8079-524A3EE44B12}" name="2018_Devengado2" dataDxfId="8" dataCellStyle="Millares"/>
-    <tableColumn id="28" xr3:uid="{DE220DA3-0B52-42B8-AFD3-15F4BA1ADB9A}" name="2019_Devengado22" dataDxfId="7" dataCellStyle="Millares"/>
-    <tableColumn id="29" xr3:uid="{17082296-326D-4A64-9B36-3784935661E0}" name="2020_Devengado2" dataDxfId="6" dataCellStyle="Millares"/>
-    <tableColumn id="30" xr3:uid="{CFEEC0D9-B525-44F6-B4CA-D723C7C68DE5}" name="2021_Devengado3" dataDxfId="5" dataCellStyle="Millares"/>
-    <tableColumn id="31" xr3:uid="{F2E196FE-6FBB-431C-88AD-E21ECC0D44E3}" name="2022_Devengado23" dataDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="32" xr3:uid="{3A2E7F63-676F-4FC8-BA01-D92AE0B2FD63}" name="2023_Devengado3" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="33" xr3:uid="{FE522EA1-4105-4A5F-BFCE-0E6AD92A9A07}" name="2024_Devengado4" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="34" xr3:uid="{095139E8-40B1-4F90-AE58-AB30BF86765A}" name="2018_fragment" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="35" xr3:uid="{EBFEE276-0EB8-4F57-8F1B-FE91F852EC82}" name="2022_fragment" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="10" xr3:uid="{84CE066F-0F6C-4FF8-BFA3-B0A63C263EC4}" name="2017_IDH" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{EF37A004-632A-4C5A-BED3-7B8FB3C52C51}" name="2018_IDH" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{190939F2-68B6-46B4-A87E-0651F103A6AD}" name="2019_IDH" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{5884C23C-E564-4C96-930B-AECA1C576A60}" name="2020_IDH" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{733CEEC0-82DD-499F-BFC4-97A799B5FFC2}" name="2021_IDH" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{68C86BAF-3BA4-4A13-9E3C-442F8431CC28}" name="2022_IDH" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{05B69C4A-4C41-4626-830D-D076723E4FBB}" name="2023_IDH" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{73FC5774-717D-4E3A-9B3C-E03D4B119214}" name="2024_IDH" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{75251FAD-4BD9-41C0-9816-88584EABB6F9}" name="2017_PIM" dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="19" xr3:uid="{3DE2772A-01C7-4332-907D-F68D1D4B80D1}" name="2018_PIM" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="20" xr3:uid="{71D0D554-D4D0-4336-A641-40B4A375C7C6}" name="2019_PIM" dataDxfId="13" dataCellStyle="Millares"/>
+    <tableColumn id="21" xr3:uid="{83BA28F5-356F-4A08-A938-B3342D7BBB85}" name="2020_PIM" dataDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="22" xr3:uid="{94EC6D8F-F80C-4551-B0FB-DFB9C835A850}" name="2021_PIM" dataDxfId="11" dataCellStyle="Millares"/>
+    <tableColumn id="23" xr3:uid="{10037463-477C-4EF1-B2A6-94361065FD2E}" name="2022_PIM" dataDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="24" xr3:uid="{94BFF7A3-EE4E-41FB-9621-4FD06CC4B865}" name="2023_PIM" dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="25" xr3:uid="{C1EE12AF-06DF-49A8-953F-40164120589B}" name="2024_PIM" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="26" xr3:uid="{98638984-81A2-4539-991C-A3DD05A3918A}" name="2017_Devengado" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="27" xr3:uid="{885D9F3F-014E-4530-8079-524A3EE44B12}" name="2018_Devengado2" dataDxfId="6" dataCellStyle="Millares"/>
+    <tableColumn id="28" xr3:uid="{DE220DA3-0B52-42B8-AFD3-15F4BA1ADB9A}" name="2019_Devengado22" dataDxfId="5" dataCellStyle="Millares"/>
+    <tableColumn id="29" xr3:uid="{17082296-326D-4A64-9B36-3784935661E0}" name="2020_Devengado2" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="30" xr3:uid="{CFEEC0D9-B525-44F6-B4CA-D723C7C68DE5}" name="2021_Devengado3" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="31" xr3:uid="{F2E196FE-6FBB-431C-88AD-E21ECC0D44E3}" name="2022_Devengado23" dataDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="32" xr3:uid="{3A2E7F63-676F-4FC8-BA01-D92AE0B2FD63}" name="2023_Devengado3" dataDxfId="1" dataCellStyle="Millares"/>
+    <tableColumn id="33" xr3:uid="{FE522EA1-4105-4A5F-BFCE-0E6AD92A9A07}" name="2024_Devengado4" dataDxfId="0" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,11 +1207,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CC5BAF-9284-4A0E-8F08-A97403862AB3}">
-  <dimension ref="A1:AI197"/>
+  <dimension ref="A1:AG197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="AI2" sqref="A1:AI2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1231,116 +1219,110 @@
     <col min="18" max="33" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1438,16 +1420,10 @@
       <c r="AG2" s="1">
         <v>29690800</v>
       </c>
-      <c r="AH2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1545,16 +1521,10 @@
       <c r="AG3" s="1">
         <v>8655331</v>
       </c>
-      <c r="AH3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1652,16 +1622,10 @@
       <c r="AG4" s="1">
         <v>78701527</v>
       </c>
-      <c r="AH4" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1759,16 +1723,10 @@
       <c r="AG5" s="1">
         <v>61573762</v>
       </c>
-      <c r="AH5" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1866,16 +1824,10 @@
       <c r="AG6" s="1">
         <v>16951177</v>
       </c>
-      <c r="AH6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1973,16 +1925,10 @@
       <c r="AG7" s="1">
         <v>25765099</v>
       </c>
-      <c r="AH7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2080,16 +2026,10 @@
       <c r="AG8" s="1">
         <v>45095022</v>
       </c>
-      <c r="AH8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2187,16 +2127,10 @@
       <c r="AG9" s="1">
         <v>6358428</v>
       </c>
-      <c r="AH9" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2294,16 +2228,10 @@
       <c r="AG10" s="1">
         <v>8483507</v>
       </c>
-      <c r="AH10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2401,16 +2329,10 @@
       <c r="AG11" s="1">
         <v>7396885</v>
       </c>
-      <c r="AH11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2508,16 +2430,10 @@
       <c r="AG12" s="1">
         <v>9053842</v>
       </c>
-      <c r="AH12" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2615,16 +2531,10 @@
       <c r="AG13" s="1">
         <v>38647456</v>
       </c>
-      <c r="AH13" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2722,16 +2632,10 @@
       <c r="AG14" s="1">
         <v>33678050</v>
       </c>
-      <c r="AH14" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2829,16 +2733,10 @@
       <c r="AG15" s="1">
         <v>63144219</v>
       </c>
-      <c r="AH15" s="1">
-        <v>18</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2936,16 +2834,10 @@
       <c r="AG16" s="1">
         <v>11543429</v>
       </c>
-      <c r="AH16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -3043,16 +2935,10 @@
       <c r="AG17" s="1">
         <v>90904590</v>
       </c>
-      <c r="AH17" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3150,16 +3036,10 @@
       <c r="AG18" s="1">
         <v>77281558</v>
       </c>
-      <c r="AH18" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3257,16 +3137,10 @@
       <c r="AG19" s="1">
         <v>71974182</v>
       </c>
-      <c r="AH19" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3364,16 +3238,10 @@
       <c r="AG20" s="1">
         <v>31564160</v>
       </c>
-      <c r="AH20" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3471,16 +3339,10 @@
       <c r="AG21" s="1">
         <v>13661890</v>
       </c>
-      <c r="AH21" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3578,16 +3440,10 @@
       <c r="AG22" s="1">
         <v>5809641</v>
       </c>
-      <c r="AH22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3685,16 +3541,10 @@
       <c r="AG23" s="1">
         <v>7440877</v>
       </c>
-      <c r="AH23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3792,16 +3642,10 @@
       <c r="AG24" s="1">
         <v>26414387</v>
       </c>
-      <c r="AH24" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3899,16 +3743,10 @@
       <c r="AG25" s="1">
         <v>14970063</v>
       </c>
-      <c r="AH25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4006,16 +3844,10 @@
       <c r="AG26" s="1">
         <v>373727663</v>
       </c>
-      <c r="AH26" s="1">
-        <v>19</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>15</v>
-      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4113,16 +3945,10 @@
       <c r="AG27" s="1">
         <v>10631857</v>
       </c>
-      <c r="AH27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4220,16 +4046,10 @@
       <c r="AG28" s="1">
         <v>32627127</v>
       </c>
-      <c r="AH28" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4327,16 +4147,10 @@
       <c r="AG29" s="1">
         <v>64696259</v>
       </c>
-      <c r="AH29" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4434,16 +4248,10 @@
       <c r="AG30" s="1">
         <v>69341065</v>
       </c>
-      <c r="AH30" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4541,16 +4349,10 @@
       <c r="AG31" s="1">
         <v>16404186</v>
       </c>
-      <c r="AH31" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4648,16 +4450,10 @@
       <c r="AG32" s="1">
         <v>16955526</v>
       </c>
-      <c r="AH32" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4755,16 +4551,10 @@
       <c r="AG33" s="1">
         <v>26612216</v>
       </c>
-      <c r="AH33" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4862,16 +4652,10 @@
       <c r="AG34" s="1">
         <v>74482602</v>
       </c>
-      <c r="AH34" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4969,16 +4753,10 @@
       <c r="AG35" s="1">
         <v>21433955</v>
       </c>
-      <c r="AH35" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5076,16 +4854,10 @@
       <c r="AG36" s="1">
         <v>188772347</v>
       </c>
-      <c r="AH36" s="1">
-        <v>23</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>17</v>
-      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5183,16 +4955,10 @@
       <c r="AG37" s="1">
         <v>39560358</v>
       </c>
-      <c r="AH37" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5290,16 +5056,10 @@
       <c r="AG38" s="1">
         <v>21539986</v>
       </c>
-      <c r="AH38" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5397,16 +5157,10 @@
       <c r="AG39" s="1">
         <v>47046026</v>
       </c>
-      <c r="AH39" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5504,16 +5258,10 @@
       <c r="AG40" s="1">
         <v>38322486</v>
       </c>
-      <c r="AH40" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5611,16 +5359,10 @@
       <c r="AG41" s="1">
         <v>12877454</v>
       </c>
-      <c r="AH41" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5718,16 +5460,10 @@
       <c r="AG42" s="1">
         <v>50239765</v>
       </c>
-      <c r="AH42" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>14</v>
-      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5825,16 +5561,10 @@
       <c r="AG43" s="1">
         <v>12376170</v>
       </c>
-      <c r="AH43" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5932,16 +5662,10 @@
       <c r="AG44" s="1">
         <v>23157444</v>
       </c>
-      <c r="AH44" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -6039,16 +5763,10 @@
       <c r="AG45" s="1">
         <v>96950233</v>
       </c>
-      <c r="AH45" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6146,16 +5864,10 @@
       <c r="AG46" s="1">
         <v>7163546</v>
       </c>
-      <c r="AH46" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -6253,16 +5965,10 @@
       <c r="AG47" s="1">
         <v>71909077</v>
       </c>
-      <c r="AH47" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -6360,16 +6066,10 @@
       <c r="AG48" s="1">
         <v>39452696</v>
       </c>
-      <c r="AH48" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6467,16 +6167,10 @@
       <c r="AG49" s="1">
         <v>18166703</v>
       </c>
-      <c r="AH49" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6574,16 +6268,10 @@
       <c r="AG50" s="1">
         <v>14801872</v>
       </c>
-      <c r="AH50" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6681,16 +6369,10 @@
       <c r="AG51" s="1">
         <v>5484121</v>
       </c>
-      <c r="AH51" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6788,16 +6470,10 @@
       <c r="AG52" s="1">
         <v>17057056</v>
       </c>
-      <c r="AH52" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6895,16 +6571,10 @@
       <c r="AG53" s="1">
         <v>21337761</v>
       </c>
-      <c r="AH53" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI53" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7002,16 +6672,10 @@
       <c r="AG54" s="1">
         <v>26390806</v>
       </c>
-      <c r="AH54" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7109,16 +6773,10 @@
       <c r="AG55" s="1">
         <v>59968425</v>
       </c>
-      <c r="AH55" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -7216,16 +6874,10 @@
       <c r="AG56" s="1">
         <v>188799814</v>
       </c>
-      <c r="AH56" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7323,16 +6975,10 @@
       <c r="AG57" s="1">
         <v>28753737</v>
       </c>
-      <c r="AH57" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7430,16 +7076,10 @@
       <c r="AG58" s="1">
         <v>76698483</v>
       </c>
-      <c r="AH58" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7537,16 +7177,10 @@
       <c r="AG59" s="1">
         <v>15074239</v>
       </c>
-      <c r="AH59" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -7644,16 +7278,10 @@
       <c r="AG60" s="1">
         <v>78798933</v>
       </c>
-      <c r="AH60" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -7751,16 +7379,10 @@
       <c r="AG61" s="1">
         <v>98590402</v>
       </c>
-      <c r="AH61" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7858,16 +7480,10 @@
       <c r="AG62" s="1">
         <v>97613289</v>
       </c>
-      <c r="AH62" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7965,16 +7581,10 @@
       <c r="AG63" s="1">
         <v>61207812</v>
       </c>
-      <c r="AH63" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -8072,16 +7682,10 @@
       <c r="AG64" s="1">
         <v>21786861</v>
       </c>
-      <c r="AH64" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -8179,16 +7783,10 @@
       <c r="AG65" s="1">
         <v>39936199</v>
       </c>
-      <c r="AH65" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8286,16 +7884,10 @@
       <c r="AG66" s="1">
         <v>17173114</v>
       </c>
-      <c r="AH66" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8393,16 +7985,10 @@
       <c r="AG67" s="1">
         <v>41462514</v>
       </c>
-      <c r="AH67" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -8500,16 +8086,10 @@
       <c r="AG68" s="1">
         <v>495709352</v>
       </c>
-      <c r="AH68" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>17</v>
-      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8607,16 +8187,10 @@
       <c r="AG69" s="1">
         <v>10478819</v>
       </c>
-      <c r="AH69" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI69" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8714,16 +8288,10 @@
       <c r="AG70" s="1">
         <v>44835949</v>
       </c>
-      <c r="AH70" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -8821,16 +8389,10 @@
       <c r="AG71" s="1">
         <v>52787971</v>
       </c>
-      <c r="AH71" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI71" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8928,16 +8490,10 @@
       <c r="AG72" s="1">
         <v>25380205</v>
       </c>
-      <c r="AH72" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI72" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9035,16 +8591,10 @@
       <c r="AG73" s="1">
         <v>88429789</v>
       </c>
-      <c r="AH73" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI73" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9142,16 +8692,10 @@
       <c r="AG74" s="1">
         <v>92467459</v>
       </c>
-      <c r="AH74" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI74" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -9249,16 +8793,10 @@
       <c r="AG75" s="1">
         <v>202691221</v>
       </c>
-      <c r="AH75" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI75" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -9356,16 +8894,10 @@
       <c r="AG76" s="1">
         <v>176440055</v>
       </c>
-      <c r="AH76" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI76" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -9463,16 +8995,10 @@
       <c r="AG77" s="1">
         <v>121656117</v>
       </c>
-      <c r="AH77" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI77" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9570,16 +9096,10 @@
       <c r="AG78" s="1">
         <v>15279779</v>
       </c>
-      <c r="AH78" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI78" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9677,16 +9197,10 @@
       <c r="AG79" s="1">
         <v>53220810</v>
       </c>
-      <c r="AH79" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI79" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9784,16 +9298,10 @@
       <c r="AG80" s="1">
         <v>32825565</v>
       </c>
-      <c r="AH80" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI80" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -9891,16 +9399,10 @@
       <c r="AG81" s="1">
         <v>50026610</v>
       </c>
-      <c r="AH81" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI81" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9998,16 +9500,10 @@
       <c r="AG82" s="1">
         <v>16146066</v>
       </c>
-      <c r="AH82" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI82" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10105,16 +9601,10 @@
       <c r="AG83" s="1">
         <v>40871823</v>
       </c>
-      <c r="AH83" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI83" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10212,16 +9702,10 @@
       <c r="AG84" s="1">
         <v>8174801</v>
       </c>
-      <c r="AH84" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI84" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10319,16 +9803,10 @@
       <c r="AG85" s="1">
         <v>12529919</v>
       </c>
-      <c r="AH85" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI85" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -10426,16 +9904,10 @@
       <c r="AG86" s="1">
         <v>53757901</v>
       </c>
-      <c r="AH86" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI86" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10533,16 +10005,10 @@
       <c r="AG87" s="1">
         <v>14019238</v>
       </c>
-      <c r="AH87" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI87" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B88">
         <v>13</v>
@@ -10640,16 +10106,10 @@
       <c r="AG88" s="1">
         <v>33027935</v>
       </c>
-      <c r="AH88" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI88" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -10747,16 +10207,10 @@
       <c r="AG89" s="1">
         <v>40782157</v>
       </c>
-      <c r="AH89" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI89" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10854,16 +10308,10 @@
       <c r="AG90" s="1">
         <v>12598413</v>
       </c>
-      <c r="AH90" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI90" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -10961,16 +10409,10 @@
       <c r="AG91" s="1">
         <v>6783246</v>
       </c>
-      <c r="AH91" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI91" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11068,16 +10510,10 @@
       <c r="AG92" s="1">
         <v>19665637</v>
       </c>
-      <c r="AH92" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI92" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>13</v>
@@ -11175,16 +10611,10 @@
       <c r="AG93" s="1">
         <v>90123052</v>
       </c>
-      <c r="AH93" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI93" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -11282,16 +10712,10 @@
       <c r="AG94" s="1">
         <v>13985577</v>
       </c>
-      <c r="AH94" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI94" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -11389,16 +10813,10 @@
       <c r="AG95" s="1">
         <v>54536586</v>
       </c>
-      <c r="AH95" s="1">
-        <v>15</v>
-      </c>
-      <c r="AI95" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11496,16 +10914,10 @@
       <c r="AG96" s="1">
         <v>30744424</v>
       </c>
-      <c r="AH96" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI96" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11603,16 +11015,10 @@
       <c r="AG97" s="1">
         <v>42428399</v>
       </c>
-      <c r="AH97" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI97" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11710,16 +11116,10 @@
       <c r="AG98" s="1">
         <v>19394983</v>
       </c>
-      <c r="AH98" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI98" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -11817,16 +11217,10 @@
       <c r="AG99" s="1">
         <v>8455887</v>
       </c>
-      <c r="AH99" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI99" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -11924,16 +11318,10 @@
       <c r="AG100" s="1">
         <v>97306633</v>
       </c>
-      <c r="AH100" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI100" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -12031,16 +11419,10 @@
       <c r="AG101" s="1">
         <v>178676585</v>
       </c>
-      <c r="AH101" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI101" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12138,16 +11520,10 @@
       <c r="AG102" s="1">
         <v>105936002</v>
       </c>
-      <c r="AH102" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI102" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12245,16 +11621,10 @@
       <c r="AG103" s="1">
         <v>8928880</v>
       </c>
-      <c r="AH103" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI103" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -12352,16 +11722,10 @@
       <c r="AG104" s="1">
         <v>68366809</v>
       </c>
-      <c r="AH104" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI104" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12459,16 +11823,10 @@
       <c r="AG105" s="1">
         <v>41671920</v>
       </c>
-      <c r="AH105" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI105" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -12566,16 +11924,10 @@
       <c r="AG106" s="1">
         <v>25825663</v>
       </c>
-      <c r="AH106" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12673,16 +12025,10 @@
       <c r="AG107" s="1">
         <v>19286878</v>
       </c>
-      <c r="AH107" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI107" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -12780,16 +12126,10 @@
       <c r="AG108" s="1">
         <v>151652777</v>
       </c>
-      <c r="AH108" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI108" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -12887,16 +12227,10 @@
       <c r="AG109" s="1">
         <v>22516173</v>
       </c>
-      <c r="AH109" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI109" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -12994,16 +12328,10 @@
       <c r="AG110" s="1">
         <v>8440430</v>
       </c>
-      <c r="AH110" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI110" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -13101,16 +12429,10 @@
       <c r="AG111" s="1">
         <v>89262307</v>
       </c>
-      <c r="AH111" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI111" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -13208,16 +12530,10 @@
       <c r="AG112" s="1">
         <v>33902963</v>
       </c>
-      <c r="AH112" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI112" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13315,16 +12631,10 @@
       <c r="AG113" s="1">
         <v>33815712</v>
       </c>
-      <c r="AH113" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI113" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13422,16 +12732,10 @@
       <c r="AG114" s="1">
         <v>18969005</v>
       </c>
-      <c r="AH114" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI114" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13529,16 +12833,10 @@
       <c r="AG115" s="1">
         <v>18305691</v>
       </c>
-      <c r="AH115" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI115" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13636,16 +12934,10 @@
       <c r="AG116" s="1">
         <v>40844824</v>
       </c>
-      <c r="AH116" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI116" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13743,16 +13035,10 @@
       <c r="AG117" s="1">
         <v>36685712</v>
       </c>
-      <c r="AH117" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI117" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13850,16 +13136,10 @@
       <c r="AG118" s="1">
         <v>27953042</v>
       </c>
-      <c r="AH118" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI118" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13957,16 +13237,10 @@
       <c r="AG119" s="1">
         <v>49238754</v>
       </c>
-      <c r="AH119" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI119" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -14064,16 +13338,10 @@
       <c r="AG120" s="1">
         <v>21576759</v>
       </c>
-      <c r="AH120" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI120" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14171,16 +13439,10 @@
       <c r="AG121" s="1">
         <v>45084023</v>
       </c>
-      <c r="AH121" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI121" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -14278,16 +13540,10 @@
       <c r="AG122" s="1">
         <v>116386729</v>
       </c>
-      <c r="AH122" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI122" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14385,16 +13641,10 @@
       <c r="AG123" s="1">
         <v>32027212</v>
       </c>
-      <c r="AH123" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI123" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14492,16 +13742,10 @@
       <c r="AG124" s="1">
         <v>225159732</v>
       </c>
-      <c r="AH124" s="1">
-        <v>18</v>
-      </c>
-      <c r="AI124" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14599,16 +13843,10 @@
       <c r="AG125" s="1">
         <v>55936665</v>
       </c>
-      <c r="AH125" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI125" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B126">
         <v>12</v>
@@ -14706,16 +13944,10 @@
       <c r="AG126" s="1">
         <v>162434077</v>
       </c>
-      <c r="AH126" s="1">
-        <v>15</v>
-      </c>
-      <c r="AI126" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -14813,16 +14045,10 @@
       <c r="AG127" s="1">
         <v>31260401</v>
       </c>
-      <c r="AH127" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI127" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -14920,16 +14146,10 @@
       <c r="AG128" s="1">
         <v>79415195</v>
       </c>
-      <c r="AH128" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI128" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15027,16 +14247,10 @@
       <c r="AG129" s="1">
         <v>53473365</v>
       </c>
-      <c r="AH129" s="1">
-        <v>17</v>
-      </c>
-      <c r="AI129" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -15134,16 +14348,10 @@
       <c r="AG130" s="1">
         <v>3697055</v>
       </c>
-      <c r="AH130" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI130" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -15241,16 +14449,10 @@
       <c r="AG131" s="1">
         <v>4828974</v>
       </c>
-      <c r="AH131" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI131" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15348,16 +14550,10 @@
       <c r="AG132" s="1">
         <v>68684391</v>
       </c>
-      <c r="AH132" s="1">
-        <v>19</v>
-      </c>
-      <c r="AI132" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -15455,16 +14651,10 @@
       <c r="AG133" s="1">
         <v>95808253</v>
       </c>
-      <c r="AH133" s="1">
-        <v>19</v>
-      </c>
-      <c r="AI133" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -15562,16 +14752,10 @@
       <c r="AG134" s="1">
         <v>24634977</v>
       </c>
-      <c r="AH134" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI134" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -15669,16 +14853,10 @@
       <c r="AG135" s="1">
         <v>87815187</v>
       </c>
-      <c r="AH135" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI135" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15776,16 +14954,10 @@
       <c r="AG136" s="1">
         <v>13400734</v>
       </c>
-      <c r="AH136" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI136" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15883,16 +15055,10 @@
       <c r="AG137" s="1">
         <v>5283842</v>
       </c>
-      <c r="AH137" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI137" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15990,16 +15156,10 @@
       <c r="AG138" s="1">
         <v>83587259</v>
       </c>
-      <c r="AH138" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI138" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -16097,16 +15257,10 @@
       <c r="AG139" s="1">
         <v>37925394</v>
       </c>
-      <c r="AH139" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI139" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -16204,16 +15358,10 @@
       <c r="AG140" s="1">
         <v>65481787</v>
       </c>
-      <c r="AH140" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI140" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16311,16 +15459,10 @@
       <c r="AG141" s="1">
         <v>36957370</v>
       </c>
-      <c r="AH141" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI141" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -16418,16 +15560,10 @@
       <c r="AG142" s="1">
         <v>137755463</v>
       </c>
-      <c r="AH142" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI142" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16525,16 +15661,10 @@
       <c r="AG143" s="1">
         <v>5451965</v>
       </c>
-      <c r="AH143" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI143" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16632,16 +15762,10 @@
       <c r="AG144" s="1">
         <v>86957012</v>
       </c>
-      <c r="AH144" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI144" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16739,16 +15863,10 @@
       <c r="AG145" s="1">
         <v>33271396</v>
       </c>
-      <c r="AH145" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI145" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -16846,16 +15964,10 @@
       <c r="AG146" s="1">
         <v>10602366</v>
       </c>
-      <c r="AH146" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI146" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -16953,16 +16065,10 @@
       <c r="AG147" s="1">
         <v>11496251</v>
       </c>
-      <c r="AH147" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI147" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -17060,16 +16166,10 @@
       <c r="AG148" s="1">
         <v>68713618</v>
       </c>
-      <c r="AH148" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI148" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -17167,16 +16267,10 @@
       <c r="AG149" s="1">
         <v>12641986</v>
       </c>
-      <c r="AH149" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI149" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17274,16 +16368,10 @@
       <c r="AG150" s="1">
         <v>12641986</v>
       </c>
-      <c r="AH150" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI150" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -17381,16 +16469,10 @@
       <c r="AG151" s="1">
         <v>140807981</v>
       </c>
-      <c r="AH151" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI151" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17488,16 +16570,10 @@
       <c r="AG152" s="1">
         <v>178971304</v>
       </c>
-      <c r="AH152" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI152" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -17595,16 +16671,10 @@
       <c r="AG153" s="1">
         <v>22079503</v>
       </c>
-      <c r="AH153" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI153" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17702,16 +16772,10 @@
       <c r="AG154" s="1">
         <v>42916230</v>
       </c>
-      <c r="AH154" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI154" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -17809,16 +16873,10 @@
       <c r="AG155" s="1">
         <v>39826697</v>
       </c>
-      <c r="AH155" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI155" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -17916,16 +16974,10 @@
       <c r="AG156" s="1">
         <v>91853102</v>
       </c>
-      <c r="AH156" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI156" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -18023,16 +17075,10 @@
       <c r="AG157" s="1">
         <v>61758061</v>
       </c>
-      <c r="AH157" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI157" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -18130,16 +17176,10 @@
       <c r="AG158" s="1">
         <v>83902618</v>
       </c>
-      <c r="AH158" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI158" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -18237,16 +17277,10 @@
       <c r="AG159" s="1">
         <v>113221808</v>
       </c>
-      <c r="AH159" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI159" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -18344,16 +17378,10 @@
       <c r="AG160" s="1">
         <v>295957724</v>
       </c>
-      <c r="AH160" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI160" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -18451,16 +17479,10 @@
       <c r="AG161" s="1">
         <v>107281052</v>
       </c>
-      <c r="AH161" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI161" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -18558,16 +17580,10 @@
       <c r="AG162" s="1">
         <v>143357675</v>
       </c>
-      <c r="AH162" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI162" s="1">
-        <v>11</v>
-      </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -18665,16 +17681,10 @@
       <c r="AG163" s="1">
         <v>161343473</v>
       </c>
-      <c r="AH163" s="1">
-        <v>13</v>
-      </c>
-      <c r="AI163" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -18772,16 +17782,10 @@
       <c r="AG164" s="1">
         <v>51447833</v>
       </c>
-      <c r="AH164" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI164" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -18879,16 +17883,10 @@
       <c r="AG165" s="1">
         <v>38160279</v>
       </c>
-      <c r="AH165" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI165" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -18986,16 +17984,10 @@
       <c r="AG166" s="1">
         <v>41874228</v>
       </c>
-      <c r="AH166" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI166" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -19093,16 +18085,10 @@
       <c r="AG167" s="1">
         <v>50038747</v>
       </c>
-      <c r="AH167" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI167" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -19200,16 +18186,10 @@
       <c r="AG168" s="1">
         <v>26254510</v>
       </c>
-      <c r="AH168" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI168" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -19307,16 +18287,10 @@
       <c r="AG169" s="1">
         <v>20777206</v>
       </c>
-      <c r="AH169" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI169" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -19414,16 +18388,10 @@
       <c r="AG170" s="1">
         <v>29626465</v>
       </c>
-      <c r="AH170" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI170" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -19521,16 +18489,10 @@
       <c r="AG171" s="1">
         <v>11710383</v>
       </c>
-      <c r="AH171" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI171" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -19628,16 +18590,10 @@
       <c r="AG172" s="1">
         <v>118894591</v>
       </c>
-      <c r="AH172" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI172" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -19735,16 +18691,10 @@
       <c r="AG173" s="1">
         <v>22621721</v>
       </c>
-      <c r="AH173" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI173" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B174">
         <v>9</v>
@@ -19842,16 +18792,10 @@
       <c r="AG174" s="1">
         <v>160434044</v>
       </c>
-      <c r="AH174" s="1">
-        <v>17</v>
-      </c>
-      <c r="AI174" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -19949,16 +18893,10 @@
       <c r="AG175" s="1">
         <v>21812634</v>
       </c>
-      <c r="AH175" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI175" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -20056,16 +18994,10 @@
       <c r="AG176" s="1">
         <v>19764180</v>
       </c>
-      <c r="AH176" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI176" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -20163,16 +19095,10 @@
       <c r="AG177" s="1">
         <v>16972671</v>
       </c>
-      <c r="AH177" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI177" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -20270,16 +19196,10 @@
       <c r="AG178" s="1">
         <v>18986392</v>
       </c>
-      <c r="AH178" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI178" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -20377,16 +19297,10 @@
       <c r="AG179" s="1">
         <v>8788060</v>
       </c>
-      <c r="AH179" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI179" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -20484,16 +19398,10 @@
       <c r="AG180" s="1">
         <v>35526009</v>
       </c>
-      <c r="AH180" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI180" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -20591,16 +19499,10 @@
       <c r="AG181" s="1">
         <v>24337780</v>
       </c>
-      <c r="AH181" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI181" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -20698,16 +19600,10 @@
       <c r="AG182" s="1">
         <v>55524700</v>
       </c>
-      <c r="AH182" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI182" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -20805,16 +19701,10 @@
       <c r="AG183" s="1">
         <v>13353570</v>
       </c>
-      <c r="AH183" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI183" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -20912,16 +19802,10 @@
       <c r="AG184" s="1">
         <v>26817708</v>
       </c>
-      <c r="AH184" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI184" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -21019,16 +19903,10 @@
       <c r="AG185" s="1">
         <v>67157335</v>
       </c>
-      <c r="AH185" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI185" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -21126,16 +20004,10 @@
       <c r="AG186" s="1">
         <v>33817443</v>
       </c>
-      <c r="AH186" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI186" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -21233,16 +20105,10 @@
       <c r="AG187" s="1">
         <v>13371586</v>
       </c>
-      <c r="AH187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI187" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -21340,16 +20206,10 @@
       <c r="AG188" s="1">
         <v>69005623</v>
       </c>
-      <c r="AH188" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI188" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -21447,16 +20307,10 @@
       <c r="AG189" s="1">
         <v>170630315</v>
       </c>
-      <c r="AH189" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI189" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -21554,16 +20408,10 @@
       <c r="AG190" s="1">
         <v>7755026</v>
       </c>
-      <c r="AH190" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI190" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -21661,16 +20509,10 @@
       <c r="AG191" s="1">
         <v>37120817</v>
       </c>
-      <c r="AH191" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI191" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -21768,16 +20610,10 @@
       <c r="AG192" s="1">
         <v>84140401</v>
       </c>
-      <c r="AH192" s="1">
-        <v>14</v>
-      </c>
-      <c r="AI192" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -21875,16 +20711,10 @@
       <c r="AG193" s="1">
         <v>44586719</v>
       </c>
-      <c r="AH193" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI193" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -21982,16 +20812,10 @@
       <c r="AG194" s="1">
         <v>91630049</v>
       </c>
-      <c r="AH194" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI194" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -22089,16 +20913,10 @@
       <c r="AG195" s="1">
         <v>160017882</v>
       </c>
-      <c r="AH195" s="1">
-        <v>15</v>
-      </c>
-      <c r="AI195" s="1">
-        <v>8</v>
-      </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -22196,16 +21014,10 @@
       <c r="AG196" s="1">
         <v>40689699</v>
       </c>
-      <c r="AH196" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI196" s="1">
-        <v>7</v>
-      </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -22302,12 +21114,6 @@
       </c>
       <c r="AG197" s="1">
         <v>10675689</v>
-      </c>
-      <c r="AH197" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI197" s="1">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Machine Learning/BD_FINAL.xlsx
+++ b/Machine Learning/BD_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpedupe-my.sharepoint.com/personal/a20185917_pucp_edu_pe/Documents/Documentos/GitHub/Diplomado_PUCP_2025-1/Machine Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{02725887-3540-4A1C-B7A3-D95B7747E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0318488-6204-4EA1-81FF-3D2B53A75EBF}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{02725887-3540-4A1C-B7A3-D95B7747E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870D0AB2-9E5F-454D-B2BD-1CD2FDFFCA8F}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="0" windowWidth="14620" windowHeight="11280" xr2:uid="{8FE0B58B-4261-47DC-AB38-012767CBD3FD}"/>
   </bookViews>
@@ -113,27 +113,6 @@
     <t>2017_Devengado</t>
   </si>
   <si>
-    <t>2018_Devengado2</t>
-  </si>
-  <si>
-    <t>2019_Devengado22</t>
-  </si>
-  <si>
-    <t>2020_Devengado2</t>
-  </si>
-  <si>
-    <t>2021_Devengado3</t>
-  </si>
-  <si>
-    <t>2022_Devengado23</t>
-  </si>
-  <si>
-    <t>2023_Devengado3</t>
-  </si>
-  <si>
-    <t>2024_Devengado4</t>
-  </si>
-  <si>
     <t>AMAZONAS_BAGUA</t>
   </si>
   <si>
@@ -720,6 +699,27 @@
   </si>
   <si>
     <t>municipalidad</t>
+  </si>
+  <si>
+    <t>2018_Devengado</t>
+  </si>
+  <si>
+    <t>2019_Devengado</t>
+  </si>
+  <si>
+    <t>2020_Devengado</t>
+  </si>
+  <si>
+    <t>2021_Devengado</t>
+  </si>
+  <si>
+    <t>2022_Devengado</t>
+  </si>
+  <si>
+    <t>2023_Devengado</t>
+  </si>
+  <si>
+    <t>2024_Devengado</t>
   </si>
 </sst>
 </file>
@@ -898,13 +898,13 @@
     <tableColumn id="24" xr3:uid="{94BFF7A3-EE4E-41FB-9621-4FD06CC4B865}" name="2023_PIM" dataDxfId="9" dataCellStyle="Millares"/>
     <tableColumn id="25" xr3:uid="{C1EE12AF-06DF-49A8-953F-40164120589B}" name="2024_PIM" dataDxfId="8" dataCellStyle="Millares"/>
     <tableColumn id="26" xr3:uid="{98638984-81A2-4539-991C-A3DD05A3918A}" name="2017_Devengado" dataDxfId="7" dataCellStyle="Millares"/>
-    <tableColumn id="27" xr3:uid="{885D9F3F-014E-4530-8079-524A3EE44B12}" name="2018_Devengado2" dataDxfId="6" dataCellStyle="Millares"/>
-    <tableColumn id="28" xr3:uid="{DE220DA3-0B52-42B8-AFD3-15F4BA1ADB9A}" name="2019_Devengado22" dataDxfId="5" dataCellStyle="Millares"/>
-    <tableColumn id="29" xr3:uid="{17082296-326D-4A64-9B36-3784935661E0}" name="2020_Devengado2" dataDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="30" xr3:uid="{CFEEC0D9-B525-44F6-B4CA-D723C7C68DE5}" name="2021_Devengado3" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="31" xr3:uid="{F2E196FE-6FBB-431C-88AD-E21ECC0D44E3}" name="2022_Devengado23" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="32" xr3:uid="{3A2E7F63-676F-4FC8-BA01-D92AE0B2FD63}" name="2023_Devengado3" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="33" xr3:uid="{FE522EA1-4105-4A5F-BFCE-0E6AD92A9A07}" name="2024_Devengado4" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="27" xr3:uid="{885D9F3F-014E-4530-8079-524A3EE44B12}" name="2018_Devengado" dataDxfId="6" dataCellStyle="Millares"/>
+    <tableColumn id="28" xr3:uid="{DE220DA3-0B52-42B8-AFD3-15F4BA1ADB9A}" name="2019_Devengado" dataDxfId="5" dataCellStyle="Millares"/>
+    <tableColumn id="29" xr3:uid="{17082296-326D-4A64-9B36-3784935661E0}" name="2020_Devengado" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="30" xr3:uid="{CFEEC0D9-B525-44F6-B4CA-D723C7C68DE5}" name="2021_Devengado" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="31" xr3:uid="{F2E196FE-6FBB-431C-88AD-E21ECC0D44E3}" name="2022_Devengado" dataDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="32" xr3:uid="{3A2E7F63-676F-4FC8-BA01-D92AE0B2FD63}" name="2023_Devengado" dataDxfId="1" dataCellStyle="Millares"/>
+    <tableColumn id="33" xr3:uid="{FE522EA1-4105-4A5F-BFCE-0E6AD92A9A07}" name="2024_Devengado" dataDxfId="0" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CC5BAF-9284-4A0E-8F08-A97403862AB3}">
   <dimension ref="A1:AG197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1221,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1299,30 +1301,30 @@
         <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1423,7 +1425,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1625,7 +1627,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1726,7 +1728,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1827,7 +1829,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1928,7 +1930,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2029,7 +2031,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2130,7 +2132,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2231,7 +2233,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2332,7 +2334,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2433,7 +2435,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2534,7 +2536,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2635,7 +2637,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2837,7 +2839,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -2938,7 +2940,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3039,7 +3041,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -3140,7 +3142,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3241,7 +3243,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3342,7 +3344,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3443,7 +3445,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3544,7 +3546,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3645,7 +3647,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3746,7 +3748,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3847,7 +3849,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3948,7 +3950,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4049,7 +4051,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4150,7 +4152,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4251,7 +4253,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4352,7 +4354,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4453,7 +4455,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4554,7 +4556,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4655,7 +4657,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4756,7 +4758,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4857,7 +4859,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4958,7 +4960,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5059,7 +5061,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5160,7 +5162,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5261,7 +5263,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5362,7 +5364,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5463,7 +5465,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5564,7 +5566,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5665,7 +5667,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -5766,7 +5768,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5867,7 +5869,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5968,7 +5970,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -6069,7 +6071,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6170,7 +6172,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6271,7 +6273,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6372,7 +6374,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6473,7 +6475,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6574,7 +6576,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6675,7 +6677,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6776,7 +6778,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -6877,7 +6879,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6978,7 +6980,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7079,7 +7081,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7180,7 +7182,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -7281,7 +7283,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -7382,7 +7384,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7483,7 +7485,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7584,7 +7586,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -7685,7 +7687,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -7786,7 +7788,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7887,7 +7889,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7988,7 +7990,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -8089,7 +8091,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8190,7 +8192,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8291,7 +8293,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -8392,7 +8394,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8493,7 +8495,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8594,7 +8596,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8695,7 +8697,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -8796,7 +8798,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -8897,7 +8899,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -8998,7 +9000,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9099,7 +9101,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9200,7 +9202,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9301,7 +9303,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -9402,7 +9404,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9503,7 +9505,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9604,7 +9606,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9705,7 +9707,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -9806,7 +9808,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -9907,7 +9909,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10008,7 +10010,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>13</v>
@@ -10109,7 +10111,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -10210,7 +10212,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10311,7 +10313,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -10412,7 +10414,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10513,7 +10515,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>13</v>
@@ -10614,7 +10616,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -10715,7 +10717,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -10816,7 +10818,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -10917,7 +10919,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11018,7 +11020,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11119,7 +11121,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -11220,7 +11222,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -11321,7 +11323,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -11422,7 +11424,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -11523,7 +11525,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -11624,7 +11626,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -11725,7 +11727,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -11826,7 +11828,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -11927,7 +11929,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12028,7 +12030,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -12129,7 +12131,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -12230,7 +12232,7 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -12331,7 +12333,7 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -12432,7 +12434,7 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -12533,7 +12535,7 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -12634,7 +12636,7 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -12735,7 +12737,7 @@
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -12836,7 +12838,7 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -12937,7 +12939,7 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13038,7 +13040,7 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13139,7 +13141,7 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13240,7 +13242,7 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -13341,7 +13343,7 @@
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13442,7 +13444,7 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13543,7 +13545,7 @@
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -13644,7 +13646,7 @@
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -13745,7 +13747,7 @@
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -13846,7 +13848,7 @@
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>12</v>
@@ -13947,7 +13949,7 @@
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -14048,7 +14050,7 @@
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -14149,7 +14151,7 @@
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14250,7 +14252,7 @@
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14351,7 +14353,7 @@
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -14452,7 +14454,7 @@
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -14553,7 +14555,7 @@
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -14654,7 +14656,7 @@
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -14755,7 +14757,7 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -14856,7 +14858,7 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -14957,7 +14959,7 @@
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15058,7 +15060,7 @@
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15159,7 +15161,7 @@
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -15260,7 +15262,7 @@
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -15361,7 +15363,7 @@
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -15462,7 +15464,7 @@
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -15563,7 +15565,7 @@
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -15664,7 +15666,7 @@
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -15765,7 +15767,7 @@
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -15866,7 +15868,7 @@
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -15967,7 +15969,7 @@
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -16068,7 +16070,7 @@
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -16169,7 +16171,7 @@
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -16270,7 +16272,7 @@
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -16371,7 +16373,7 @@
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -16472,7 +16474,7 @@
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -16573,7 +16575,7 @@
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -16674,7 +16676,7 @@
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -16775,7 +16777,7 @@
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -16876,7 +16878,7 @@
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -16977,7 +16979,7 @@
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -17078,7 +17080,7 @@
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -17179,7 +17181,7 @@
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -17280,7 +17282,7 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -17381,7 +17383,7 @@
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -17482,7 +17484,7 @@
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -17583,7 +17585,7 @@
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -17684,7 +17686,7 @@
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -17785,7 +17787,7 @@
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -17886,7 +17888,7 @@
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -17987,7 +17989,7 @@
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -18088,7 +18090,7 @@
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -18189,7 +18191,7 @@
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -18290,7 +18292,7 @@
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -18391,7 +18393,7 @@
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -18492,7 +18494,7 @@
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -18593,7 +18595,7 @@
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -18694,7 +18696,7 @@
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>9</v>
@@ -18795,7 +18797,7 @@
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -18896,7 +18898,7 @@
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -18997,7 +18999,7 @@
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -19098,7 +19100,7 @@
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -19199,7 +19201,7 @@
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -19300,7 +19302,7 @@
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -19401,7 +19403,7 @@
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -19502,7 +19504,7 @@
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -19603,7 +19605,7 @@
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -19704,7 +19706,7 @@
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -19805,7 +19807,7 @@
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -19906,7 +19908,7 @@
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -20007,7 +20009,7 @@
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -20108,7 +20110,7 @@
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -20209,7 +20211,7 @@
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -20310,7 +20312,7 @@
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -20411,7 +20413,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -20512,7 +20514,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -20613,7 +20615,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -20714,7 +20716,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -20815,7 +20817,7 @@
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -20916,7 +20918,7 @@
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -21017,7 +21019,7 @@
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>2</v>
